--- a/Final_data/Strumenti/Matrici_confusione.xlsx
+++ b/Final_data/Strumenti/Matrici_confusione.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marzio\Documents\GitHub\Exoplanets_Supervised_Learning\Final_data\Strumenti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC5FCF90-9656-4AF0-B58C-639F1FA042DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB502BD-42DD-474A-B594-FC48198429FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5415" yWindow="1395" windowWidth="16320" windowHeight="14265" activeTab="2" xr2:uid="{98C08DC5-9F93-4672-951B-E2FA212067E3}"/>
+    <workbookView xWindow="5415" yWindow="1335" windowWidth="16320" windowHeight="14265" activeTab="2" xr2:uid="{98C08DC5-9F93-4672-951B-E2FA212067E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Decision tree " sheetId="1" r:id="rId1"/>
@@ -12756,7 +12756,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12768,62 +12768,62 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2">
-        <v>308</v>
+        <v>136</v>
       </c>
       <c r="C2">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E2">
-        <v>309</v>
+        <v>133</v>
       </c>
       <c r="F2">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="H2">
-        <v>306</v>
+        <v>136</v>
       </c>
       <c r="I2">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3">
-        <v>36</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6">
-        <v>311</v>
+        <v>132</v>
       </c>
       <c r="C6">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E6">
-        <v>311</v>
+        <v>137</v>
       </c>
       <c r="F6">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H6">
-        <v>305</v>
+        <v>131</v>
       </c>
       <c r="I6">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -12831,36 +12831,36 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10">
-        <v>312</v>
+        <v>134</v>
       </c>
       <c r="C10">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E10">
-        <v>309</v>
+        <v>130</v>
       </c>
       <c r="F10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H10">
-        <v>314</v>
+        <v>132</v>
       </c>
       <c r="I10">
         <v>4</v>
@@ -12868,38 +12868,38 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14">
-        <v>311</v>
+        <v>136</v>
       </c>
       <c r="C14">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
         <v>3</v>
@@ -12908,21 +12908,21 @@
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F16" s="1">
         <f>(B2+E2+B6+E6+H6+B10+E10+B14+H10+H2)</f>
-        <v>3096</v>
+        <v>1337</v>
       </c>
       <c r="G16" s="1">
         <f>(C2+F2+C6+F6+I6+C10+F10+C14+I10+I2)</f>
-        <v>87</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F17" s="1">
         <f>(B3+E3+B7+E7+H7+B11+E11+B15+H11+H3)</f>
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="G17" s="1">
         <f>(C3+F3+C7+F7+I7+C11+F11+C15+I11+I3)</f>
-        <v>311</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/Final_data/Strumenti/Matrici_confusione.xlsx
+++ b/Final_data/Strumenti/Matrici_confusione.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marzio\Documents\GitHub\Exoplanets_Supervised_Learning\Final_data\Strumenti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB502BD-42DD-474A-B594-FC48198429FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F3ABF0-5F65-48DE-88CD-995E46B98BD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5415" yWindow="1335" windowWidth="16320" windowHeight="14265" activeTab="2" xr2:uid="{98C08DC5-9F93-4672-951B-E2FA212067E3}"/>
+    <workbookView xWindow="2235" yWindow="975" windowWidth="16320" windowHeight="14265" activeTab="3" xr2:uid="{98C08DC5-9F93-4672-951B-E2FA212067E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Decision tree " sheetId="1" r:id="rId1"/>
     <sheet name="Random Foreest" sheetId="2" r:id="rId2"/>
     <sheet name="SVM" sheetId="3" r:id="rId3"/>
+    <sheet name="PCA+SVM" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="4">
   <si>
     <t>P</t>
   </si>
@@ -12755,8 +12756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A5CE21A-2768-4784-AE70-E0374208041D}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K21" sqref="A1:K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12928,4 +12929,183 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9A3F08E-2330-4A19-B298-CA6F75402526}">
+  <dimension ref="A1:I17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F16" s="1">
+        <f>(B2+E2+B6+E6+H6+B10+E10+B14+H10+H2)</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <f>(C2+F2+C6+F6+I6+C10+F10+C14+I10+I2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F17" s="1">
+        <f>(B3+E3+B7+E7+H7+B11+E11+B15+H11+H3)</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <f>(C3+F3+C7+F7+I7+C11+F11+C15+I11+I3)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Final_data/Strumenti/Matrici_confusione.xlsx
+++ b/Final_data/Strumenti/Matrici_confusione.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marzio\Documents\GitHub\Exoplanets_Supervised_Learning\Final_data\Strumenti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F3ABF0-5F65-48DE-88CD-995E46B98BD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BFAC272-3A80-4B4F-8469-F89BD6D846BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2235" yWindow="975" windowWidth="16320" windowHeight="14265" activeTab="3" xr2:uid="{98C08DC5-9F93-4672-951B-E2FA212067E3}"/>
+    <workbookView xWindow="3210" yWindow="1215" windowWidth="16320" windowHeight="14265" activeTab="3" xr2:uid="{98C08DC5-9F93-4672-951B-E2FA212067E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Decision tree " sheetId="1" r:id="rId1"/>
@@ -12936,7 +12936,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="F16" sqref="F16:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12948,19 +12948,19 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -12971,36 +12971,36 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6">
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -13011,39 +13011,39 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10">
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -13051,27 +13051,27 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -13079,7 +13079,7 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E15" t="s">
         <v>3</v>
@@ -13088,21 +13088,21 @@
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F16" s="1">
         <f>(B2+E2+B6+E6+H6+B10+E10+B14+H10+H2)</f>
-        <v>0</v>
+        <v>1347</v>
       </c>
       <c r="G16" s="1">
         <f>(C2+F2+C6+F6+I6+C10+F10+C14+I10+I2)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F17" s="1">
         <f>(B3+E3+B7+E7+H7+B11+E11+B15+H11+H3)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" s="1">
         <f>(C3+F3+C7+F7+I7+C11+F11+C15+I11+I3)</f>
-        <v>0</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/Final_data/Strumenti/Matrici_confusione.xlsx
+++ b/Final_data/Strumenti/Matrici_confusione.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marzio\Documents\GitHub\Exoplanets_Supervised_Learning\Final_data\Strumenti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BFAC272-3A80-4B4F-8469-F89BD6D846BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C08BDB-51BC-4249-824D-27B6A01FF53D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3210" yWindow="1215" windowWidth="16320" windowHeight="14265" activeTab="3" xr2:uid="{98C08DC5-9F93-4672-951B-E2FA212067E3}"/>
+    <workbookView xWindow="3210" yWindow="1215" windowWidth="16320" windowHeight="14265" activeTab="4" xr2:uid="{98C08DC5-9F93-4672-951B-E2FA212067E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Decision tree " sheetId="1" r:id="rId1"/>
     <sheet name="Random Foreest" sheetId="2" r:id="rId2"/>
     <sheet name="SVM" sheetId="3" r:id="rId3"/>
     <sheet name="PCA+SVM" sheetId="4" r:id="rId4"/>
+    <sheet name="QDA" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="4">
   <si>
     <t>P</t>
   </si>
@@ -12935,8 +12936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9A3F08E-2330-4A19-B298-CA6F75402526}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16:G17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J17" sqref="A1:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13108,4 +13109,183 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{285E135B-5AC0-48EB-A030-D27E39CAAEC3}">
+  <dimension ref="A1:I17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>136</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>133</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>135</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>11</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>13</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>131</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>132</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <v>139</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>15</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>14</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>130</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>136</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>136</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>18</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>12</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>130</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>15</v>
+      </c>
+      <c r="E15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F16" s="1">
+        <f>(B2+E2+B6+E6+H6+B10+E10+B14+H10+H2)</f>
+        <v>1338</v>
+      </c>
+      <c r="G16" s="1">
+        <f>(C2+F2+C6+F6+I6+C10+F10+C14+I10+I2)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F17" s="1">
+        <f>(B3+E3+B7+E7+H7+B11+E11+B15+H11+H3)</f>
+        <v>12</v>
+      </c>
+      <c r="G17" s="1">
+        <f>(C3+F3+C7+F7+I7+C11+F11+C15+I11+I3)</f>
+        <v>132</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Final_data/Strumenti/Matrici_confusione.xlsx
+++ b/Final_data/Strumenti/Matrici_confusione.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marzio\Documents\GitHub\Exoplanets_Supervised_Learning\Final_data\Strumenti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C08BDB-51BC-4249-824D-27B6A01FF53D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F631BC-6B85-48D3-A953-32F98E0D480E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3210" yWindow="1215" windowWidth="16320" windowHeight="14265" activeTab="4" xr2:uid="{98C08DC5-9F93-4672-951B-E2FA212067E3}"/>
+    <workbookView xWindow="3210" yWindow="1215" windowWidth="16320" windowHeight="14265" tabRatio="695" activeTab="5" xr2:uid="{98C08DC5-9F93-4672-951B-E2FA212067E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Decision tree " sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="SVM" sheetId="3" r:id="rId3"/>
     <sheet name="PCA+SVM" sheetId="4" r:id="rId4"/>
     <sheet name="QDA" sheetId="5" r:id="rId5"/>
+    <sheet name="LDA" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="4">
   <si>
     <t>P</t>
   </si>
@@ -13115,8 +13116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{285E135B-5AC0-48EB-A030-D27E39CAAEC3}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J18" sqref="A1:J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13288,4 +13289,184 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8309EACC-C136-45DE-AB39-7CF71AC0163E}">
+  <dimension ref="A1:I17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>137</v>
+      </c>
+      <c r="C2">
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>134</v>
+      </c>
+      <c r="F2">
+        <v>9</v>
+      </c>
+      <c r="H2">
+        <v>138</v>
+      </c>
+      <c r="I2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>6</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>131</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <v>133</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <v>137</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>11</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>14</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>132</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>136</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+      <c r="H10">
+        <v>131</v>
+      </c>
+      <c r="I10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>15</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>9</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>134</v>
+      </c>
+      <c r="C14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F16" s="1">
+        <f>(B2+E2+B6+E6+H6+B10+E10+B14+H10+H2)</f>
+        <v>1343</v>
+      </c>
+      <c r="G16" s="1">
+        <f>(C2+F2+C6+F6+I6+C10+F10+C14+I10+I2)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F17" s="1">
+        <f>(B3+E3+B7+E7+H7+B11+E11+B15+H11+H3)</f>
+        <v>5</v>
+      </c>
+      <c r="G17" s="1">
+        <f>(C3+F3+C7+F7+I7+C11+F11+C15+I11+I3)</f>
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Final_data/Strumenti/Matrici_confusione.xlsx
+++ b/Final_data/Strumenti/Matrici_confusione.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marzio\Documents\GitHub\Exoplanets_Supervised_Learning\Final_data\Strumenti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F631BC-6B85-48D3-A953-32F98E0D480E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33B65CED-7065-404B-9C86-0A048440A8C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3210" yWindow="1215" windowWidth="16320" windowHeight="14265" tabRatio="695" activeTab="5" xr2:uid="{98C08DC5-9F93-4672-951B-E2FA212067E3}"/>
+    <workbookView xWindow="3480" yWindow="1455" windowWidth="16380" windowHeight="14265" tabRatio="695" activeTab="1" xr2:uid="{98C08DC5-9F93-4672-951B-E2FA212067E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Decision tree " sheetId="1" r:id="rId1"/>
@@ -406,7 +406,7 @@
   <dimension ref="A1:L1502"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I17"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -424,22 +424,22 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B2">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E2">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -453,19 +453,19 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I3">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -492,22 +492,22 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>127</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>131</v>
+      </c>
+      <c r="I6">
         <v>4</v>
-      </c>
-      <c r="E6">
-        <v>132</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>137</v>
-      </c>
-      <c r="I6">
-        <v>3</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -518,22 +518,22 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H7">
         <v>2</v>
       </c>
       <c r="I7">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -560,22 +560,22 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E10">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="F10">
         <v>2</v>
       </c>
       <c r="H10">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I10">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -586,22 +586,22 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>18</v>
       </c>
       <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>21</v>
+      </c>
+      <c r="H11">
         <v>2</v>
       </c>
-      <c r="F11">
-        <v>12</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
       <c r="I11">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -628,10 +628,10 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -642,10 +642,10 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C15">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E15" t="s">
         <v>3</v>
@@ -660,11 +660,11 @@
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F16" s="1">
         <f>(B2+E2+B6+E6+H6+B10+E10+B14+H10+H2)</f>
-        <v>1339</v>
+        <v>1284</v>
       </c>
       <c r="G16" s="1">
         <f>(C2+F2+C6+F6+I6+C10+F10+C14+I10+I2)</f>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -676,11 +676,11 @@
     <row r="17" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F17" s="1">
         <f>(B3+E3+B7+E7+H7+B11+E11+B15+H11+H3)</f>
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G17" s="1">
         <f>(C3+F3+C7+F7+I7+C11+F11+C15+I11+I3)</f>
-        <v>128</v>
+        <v>174</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -12579,8 +12579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{281E2E0C-C99E-44C7-8FAA-53DB224B14F9}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="F16:G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12592,22 +12592,22 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E2">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -12615,16 +12615,16 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3">
         <v>11</v>
@@ -12638,16 +12638,16 @@
         <v>3</v>
       </c>
       <c r="E6">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H6">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -12661,69 +12661,69 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E10">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H10">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I10">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C15">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E15" t="s">
         <v>3</v>
@@ -12732,21 +12732,21 @@
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F16" s="1">
         <f>(B2+E2+B6+E6+H6+B10+E10+B14+H10+H2)</f>
-        <v>1341</v>
+        <v>1291</v>
       </c>
       <c r="G16" s="1">
         <f>(C2+F2+C6+F6+I6+C10+F10+C14+I10+I2)</f>
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F17" s="1">
         <f>(B3+E3+B7+E7+H7+B11+E11+B15+H11+H3)</f>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G17" s="1">
         <f>(C3+F3+C7+F7+I7+C11+F11+C15+I11+I3)</f>
-        <v>131</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -13295,8 +13295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8309EACC-C136-45DE-AB39-7CF71AC0163E}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I17" sqref="A1:I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13308,59 +13308,59 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="C2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E2">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F2">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="I2">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I3">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6">
+        <v>133</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>127</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="H6">
         <v>131</v>
-      </c>
-      <c r="C6">
-        <v>6</v>
-      </c>
-      <c r="E6">
-        <v>133</v>
-      </c>
-      <c r="F6">
-        <v>3</v>
-      </c>
-      <c r="H6">
-        <v>137</v>
       </c>
       <c r="I6">
         <v>4</v>
@@ -13368,42 +13368,42 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H7">
         <v>2</v>
       </c>
       <c r="I7">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C10">
         <v>3</v>
       </c>
       <c r="E10">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="F10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H10">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I10">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -13411,35 +13411,35 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="C14">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C15">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E15" t="s">
         <v>3</v>
@@ -13448,21 +13448,21 @@
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F16" s="1">
         <f>(B2+E2+B6+E6+H6+B10+E10+B14+H10+H2)</f>
-        <v>1343</v>
+        <v>1284</v>
       </c>
       <c r="G16" s="1">
         <f>(C2+F2+C6+F6+I6+C10+F10+C14+I10+I2)</f>
-        <v>60</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F17" s="1">
         <f>(B3+E3+B7+E7+H7+B11+E11+B15+H11+H3)</f>
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="G17" s="1">
         <f>(C3+F3+C7+F7+I7+C11+F11+C15+I11+I3)</f>
-        <v>92</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/Final_data/Strumenti/Matrici_confusione.xlsx
+++ b/Final_data/Strumenti/Matrici_confusione.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marzio\Documents\GitHub\Exoplanets_Supervised_Learning\Final_data\Strumenti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E29DEED0-13B0-4D6B-A520-FA8D2C4D130E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{521460F2-2145-46D6-BAFA-FAE2D7DB954F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="285" windowWidth="16770" windowHeight="15225" tabRatio="695" activeTab="3" xr2:uid="{98C08DC5-9F93-4672-951B-E2FA212067E3}"/>
+    <workbookView xWindow="1680" yWindow="270" windowWidth="16770" windowHeight="15270" tabRatio="695" activeTab="4" xr2:uid="{98C08DC5-9F93-4672-951B-E2FA212067E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Decision tree " sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="PCA+SVM" sheetId="4" r:id="rId4"/>
     <sheet name="QDA" sheetId="5" r:id="rId5"/>
     <sheet name="LDA" sheetId="6" r:id="rId6"/>
+    <sheet name="Logistic" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="2">
   <si>
     <t>CV-10</t>
   </si>
@@ -936,7 +937,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9A3F08E-2330-4A19-B298-CA6F75402526}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
@@ -1115,8 +1116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{285E135B-5AC0-48EB-A030-D27E39CAAEC3}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="A1:J18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1128,19 +1129,19 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E2">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H2">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -1148,118 +1149,118 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F3">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E6">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F6">
         <v>3</v>
       </c>
       <c r="H6">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I7">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E10">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="F10">
         <v>2</v>
       </c>
       <c r="H10">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C11">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F11">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I11">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C15">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E15" t="s">
         <v>1</v>
@@ -1268,21 +1269,21 @@
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F16" s="1">
         <f>(B2+E2+B6+E6+H6+B10+E10+B14+H10+H2)</f>
-        <v>1338</v>
+        <v>1247</v>
       </c>
       <c r="G16" s="1">
         <f>(C2+F2+C6+F6+I6+C10+F10+C14+I10+I2)</f>
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F17" s="1">
         <f>(B3+E3+B7+E7+H7+B11+E11+B15+H11+H3)</f>
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="G17" s="1">
         <f>(C3+F3+C7+F7+I7+C11+F11+C15+I11+I3)</f>
-        <v>132</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -1295,7 +1296,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="A1:I17"/>
+      <selection sqref="A1:I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1307,138 +1308,138 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H2">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I3">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E6">
+        <v>128</v>
+      </c>
+      <c r="F6">
+        <v>12</v>
+      </c>
+      <c r="H6">
         <v>127</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>131</v>
-      </c>
       <c r="I6">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I7">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E10">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="H10">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C11">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I11">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C15">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E15" t="s">
         <v>1</v>
@@ -1447,25 +1448,204 @@
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F16" s="1">
         <f>(B2+E2+B6+E6+H6+B10+E10+B14+H10+H2)</f>
-        <v>1284</v>
+        <v>1257</v>
       </c>
       <c r="G16" s="1">
         <f>(C2+F2+C6+F6+I6+C10+F10+C14+I10+I2)</f>
-        <v>21</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F17" s="1">
         <f>(B3+E3+B7+E7+H7+B11+E11+B15+H11+H3)</f>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G17" s="1">
         <f>(C3+F3+C7+F7+I7+C11+F11+C15+I11+I3)</f>
-        <v>174</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E3513F9-A90F-472C-96FE-064031A20107}">
+  <dimension ref="A1:I17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>126</v>
+      </c>
+      <c r="C2">
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <v>129</v>
+      </c>
+      <c r="F2">
+        <v>9</v>
+      </c>
+      <c r="H2">
+        <v>130</v>
+      </c>
+      <c r="I2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>14</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>9</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>130</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>129</v>
+      </c>
+      <c r="F6">
+        <v>12</v>
+      </c>
+      <c r="H6">
+        <v>132</v>
+      </c>
+      <c r="I6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>8</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>127</v>
+      </c>
+      <c r="C10">
+        <v>13</v>
+      </c>
+      <c r="E10">
+        <v>125</v>
+      </c>
+      <c r="F10">
+        <v>13</v>
+      </c>
+      <c r="H10">
+        <v>127</v>
+      </c>
+      <c r="I10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+      <c r="H11">
+        <v>3</v>
+      </c>
+      <c r="I11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>125</v>
+      </c>
+      <c r="C14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>11</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F16" s="1">
+        <f>(B2+E2+B6+E6+H6+B10+E10+B14+H10+H2)</f>
+        <v>1280</v>
+      </c>
+      <c r="G16" s="1">
+        <f>(C2+F2+C6+F6+I6+C10+F10+C14+I10+I2)</f>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F17" s="1">
+        <f>(B3+E3+B7+E7+H7+B11+E11+B15+H11+H3)</f>
+        <v>23</v>
+      </c>
+      <c r="G17" s="1">
+        <f>(C3+F3+C7+F7+I7+C11+F11+C15+I11+I3)</f>
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>